--- a/data/hotels_by_city/Dallas/Dallas_shard_732.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_732.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1680 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r568460020-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>55828</t>
+  </si>
+  <si>
+    <t>109238</t>
+  </si>
+  <si>
+    <t>568460020</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Do not stay here!</t>
+  </si>
+  <si>
+    <t>Do not stay here. Hotel rooms are dirty. Shower curtain rob was broke so when I showered water went all over the floor, nightstand was broke..looked like someone took a bat to it, burn holes in comforter and sheets, also sheets were stained with god only knows what! Half of my lights would not work, missing light bulbs(maybe they don't want you to see how dirty it is?) Bad neighborhood! Did not get any sleep worried that someone may break in. My advise, pay a little more and stay elsewhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Do not stay here. Hotel rooms are dirty. Shower curtain rob was broke so when I showered water went all over the floor, nightstand was broke..looked like someone took a bat to it, burn holes in comforter and sheets, also sheets were stained with god only knows what! Half of my lights would not work, missing light bulbs(maybe they don't want you to see how dirty it is?) Bad neighborhood! Did not get any sleep worried that someone may break in. My advise, pay a little more and stay elsewhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r567704672-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>567704672</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r563645066-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>563645066</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay but the front end clerk was racist and unprofessional I felt like the situation could have been</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay but the front end clerk was racist and unprofessional I felt like the situation could have been handle better but I was never called back as a follow upMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay but the front end clerk was racist and unprofessional I felt like the situation could have been handle better but I was never called back as a follow upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r557806340-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>557806340</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r555179846-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>555179846</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r542897724-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>542897724</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Dissatisfaction</t>
+  </si>
+  <si>
+    <t>This stay had many problems: stained sheets, dirty ceiling &amp; bath, smelled of pot &amp; cigarettes. Coke machines empty on both floors. Won't stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>This stay had many problems: stained sheets, dirty ceiling &amp; bath, smelled of pot &amp; cigarettes. Coke machines empty on both floors. Won't stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r525556610-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>525556610</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>The place is not clean hair in fridge and tub. The door is about 4 inches off the ground I can hear everythin,  alot of slamming the door. I stayed in a non smoking room which smelled like smoke, half of the lights in my room did not work.I left my name and number with the front desk associate, as managers do not work on Sunday. That was 10 days ago, I have yet to get a call back, although I left two messages subsequently. the desk chair in my room was dirty ac barley worked and overall cleanliness was lacking. as I checked in it was 11:30 and I was a female traveling alone so I didnt leave, but didnt sleep well. I didn't even consider touching the breakfast. PLEASE DONT GO HEREMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Public Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>The place is not clean hair in fridge and tub. The door is about 4 inches off the ground I can hear everythin,  alot of slamming the door. I stayed in a non smoking room which smelled like smoke, half of the lights in my room did not work.I left my name and number with the front desk associate, as managers do not work on Sunday. That was 10 days ago, I have yet to get a call back, although I left two messages subsequently. the desk chair in my room was dirty ac barley worked and overall cleanliness was lacking. as I checked in it was 11:30 and I was a female traveling alone so I didnt leave, but didnt sleep well. I didn't even consider touching the breakfast. PLEASE DONT GO HEREMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r522364160-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>522364160</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>The bathroom was filthy, red/pink something was smeared all...</t>
+  </si>
+  <si>
+    <t>The bathroom was filthy, red/pink something was smeared all over bathroom toilet, bathtub, and sink. And yes it was cleanable I used a towel to clean my own toilet seat. The doors had no deadbolt or extra locks and you could see the hall light thru the door where it wasn't hung correctly and or broke. There were no extra locks on the door passing thru my room to the other. The floor was sticky and not cleaned and tbere was red all over the bedding. MoreShow less</t>
+  </si>
+  <si>
+    <t>The bathroom was filthy, red/pink something was smeared all over bathroom toilet, bathtub, and sink. And yes it was cleanable I used a towel to clean my own toilet seat. The doors had no deadbolt or extra locks and you could see the hall light thru the door where it wasn't hung correctly and or broke. There were no extra locks on the door passing thru my room to the other. The floor was sticky and not cleaned and tbere was red all over the bedding. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r521206070-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>521206070</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r508780971-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>508780971</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r507463371-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>507463371</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Unfortunate!</t>
+  </si>
+  <si>
+    <t>It is unfortunate that this property is part of the otherwise excellent "value" portfolio operated by Wyndham! It is NOT a good representation of their organization! Lack of enthusiasm during check in, garbage dumpsters being emptied at 03:00 am right outside window, maintenance issues, cleanliness oversights aplenty! Will not be back to this property and recommend it be LAST RESORT for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Front Office Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>It is unfortunate that this property is part of the otherwise excellent "value" portfolio operated by Wyndham! It is NOT a good representation of their organization! Lack of enthusiasm during check in, garbage dumpsters being emptied at 03:00 am right outside window, maintenance issues, cleanliness oversights aplenty! Will not be back to this property and recommend it be LAST RESORT for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r506507211-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>506507211</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Fun and friendly stay in Dallas!</t>
+  </si>
+  <si>
+    <t>Our stay was extremely efficient and easy. The location of Super 8 was near many restaurants and fast food. It was also near many attractions that my friends and I attended, making our trip fun. The breakfast area was really clean with delicious breakfast choices. The staff was nice. Our rooms were clean and the beds were very comfortable. We had a great time in Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Our stay was extremely efficient and easy. The location of Super 8 was near many restaurants and fast food. It was also near many attractions that my friends and I attended, making our trip fun. The breakfast area was really clean with delicious breakfast choices. The staff was nice. Our rooms were clean and the beds were very comfortable. We had a great time in Dallas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r506137965-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>506137965</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>The room was spacious and I liked the idea of putting the room key in the slot on the wall to run the lights and all electronics.MoreShow less</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Public Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>The room was spacious and I liked the idea of putting the room key in the slot on the wall to run the lights and all electronics.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r503558098-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>503558098</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable stay!</t>
+  </si>
+  <si>
+    <t>My stay at Super 8 North Dallas was very easy and comfortable. The staff was very friendly when helping me to my room. The breakfast area was clean and the food completed my mornings. I would recommend this hotel to anyone who wants a comfortable stay in Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at Super 8 North Dallas was very easy and comfortable. The staff was very friendly when helping me to my room. The breakfast area was clean and the food completed my mornings. I would recommend this hotel to anyone who wants a comfortable stay in Dallas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r503557785-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>503557785</t>
+  </si>
+  <si>
+    <t>Very excellent!</t>
+  </si>
+  <si>
+    <t>I was impressed with the overall cleanliness of the hotel at large and public areas. The rooms are very cozy and inviting and very organized. I enjoyed delicious breakfast at the hotel and even going out with my friends to the Jack In The Box and Waffle House next door. The staff accommodated all my needs without complaint. I would love to enjoy another stay in such an inviting atmosphere! MoreShow less</t>
+  </si>
+  <si>
+    <t>I was impressed with the overall cleanliness of the hotel at large and public areas. The rooms are very cozy and inviting and very organized. I enjoyed delicious breakfast at the hotel and even going out with my friends to the Jack In The Box and Waffle House next door. The staff accommodated all my needs without complaint. I would love to enjoy another stay in such an inviting atmosphere! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r501633830-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>501633830</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>not satasfied</t>
+  </si>
+  <si>
+    <t>The bathroom is outdated. Did not like that the sink is outside the bathroom. Was sexually harrased by the employee while doing laundry. MoreShow less</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>The bathroom is outdated. Did not like that the sink is outside the bathroom. Was sexually harrased by the employee while doing laundry. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r501329812-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>501329812</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r500540792-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>500540792</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r491233643-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>491233643</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>My son has asthma so I requested a smoke free room. From the time I walked in the hotel all you smelled was smoke. People were actually walking around smoking inside the building, I was not happy about this. I got to my room and again smoke everywhere. I asked for another room because it felt like the second floors air was broke and it was much more smoky on that floor, also the small fridge has a foul order coming from it too. It smelled like puke in our room, it was coming from the small fridge. The room wasn't clean at all, flat pillows and thin blankets smelly room. I was told that I would have to wait till in the morning, I told the guy that my son had asthma and he was having problems breathing, he said I am sorry we will get you switched to another room in the morning. Morning came and I got up got dressed and didn't even eat the breakfast there because it smelled that bad. I tried to talk to the manager while my kids were instructed to go set in our car, I waited about 15 minutes to talk to him but he never showed up. I then asked for a refund on the nights I didn't stay because the whole building stunk like cigarette smoke, I was told I would get a refund so I left. I will...My son has asthma so I requested a smoke free room. From the time I walked in the hotel all you smelled was smoke. People were actually walking around smoking inside the building, I was not happy about this. I got to my room and again smoke everywhere. I asked for another room because it felt like the second floors air was broke and it was much more smoky on that floor, also the small fridge has a foul order coming from it too. It smelled like puke in our room, it was coming from the small fridge. The room wasn't clean at all, flat pillows and thin blankets smelly room. I was told that I would have to wait till in the morning, I told the guy that my son had asthma and he was having problems breathing, he said I am sorry we will get you switched to another room in the morning. Morning came and I got up got dressed and didn't even eat the breakfast there because it smelled that bad. I tried to talk to the manager while my kids were instructed to go set in our car, I waited about 15 minutes to talk to him but he never showed up. I then asked for a refund on the nights I didn't stay because the whole building stunk like cigarette smoke, I was told I would get a refund so I left. I will never go back to this place it was horrible and I have stayed in some cheap places before, but this place was just nasty, and their pictures on line are a lie! DO NOT STAY HERE!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>My son has asthma so I requested a smoke free room. From the time I walked in the hotel all you smelled was smoke. People were actually walking around smoking inside the building, I was not happy about this. I got to my room and again smoke everywhere. I asked for another room because it felt like the second floors air was broke and it was much more smoky on that floor, also the small fridge has a foul order coming from it too. It smelled like puke in our room, it was coming from the small fridge. The room wasn't clean at all, flat pillows and thin blankets smelly room. I was told that I would have to wait till in the morning, I told the guy that my son had asthma and he was having problems breathing, he said I am sorry we will get you switched to another room in the morning. Morning came and I got up got dressed and didn't even eat the breakfast there because it smelled that bad. I tried to talk to the manager while my kids were instructed to go set in our car, I waited about 15 minutes to talk to him but he never showed up. I then asked for a refund on the nights I didn't stay because the whole building stunk like cigarette smoke, I was told I would get a refund so I left. I will...My son has asthma so I requested a smoke free room. From the time I walked in the hotel all you smelled was smoke. People were actually walking around smoking inside the building, I was not happy about this. I got to my room and again smoke everywhere. I asked for another room because it felt like the second floors air was broke and it was much more smoky on that floor, also the small fridge has a foul order coming from it too. It smelled like puke in our room, it was coming from the small fridge. The room wasn't clean at all, flat pillows and thin blankets smelly room. I was told that I would have to wait till in the morning, I told the guy that my son had asthma and he was having problems breathing, he said I am sorry we will get you switched to another room in the morning. Morning came and I got up got dressed and didn't even eat the breakfast there because it smelled that bad. I tried to talk to the manager while my kids were instructed to go set in our car, I waited about 15 minutes to talk to him but he never showed up. I then asked for a refund on the nights I didn't stay because the whole building stunk like cigarette smoke, I was told I would get a refund so I left. I will never go back to this place it was horrible and I have stayed in some cheap places before, but this place was just nasty, and their pictures on line are a lie! DO NOT STAY HERE!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r487152619-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>487152619</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>Overall not a bad place to stay. Room and bathroom were clean. Close to several places to eat and the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall not a bad place to stay. Room and bathroom were clean. Close to several places to eat and the interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r486401988-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>486401988</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r482210001-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>482210001</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay for a week</t>
+  </si>
+  <si>
+    <t>I was impressed with the ambiance in lobby and the service from front desk. I came to know that they have renovated the motel recently. I was very surprised with the quality of room and breakfast. Room was well organized and clean. Breakfast was really good. On overall, I enjoyed my stay for a week, having very clean premises. I would highly recommend this motel for short and long stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>I was impressed with the ambiance in lobby and the service from front desk. I came to know that they have renovated the motel recently. I was very surprised with the quality of room and breakfast. Room was well organized and clean. Breakfast was really good. On overall, I enjoyed my stay for a week, having very clean premises. I would highly recommend this motel for short and long stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r479003864-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>479003864</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>2-Night Stay</t>
+  </si>
+  <si>
+    <t>The personnel were courteous. Price went way up since Dec and was not allowed to use Senior discount-AARPMoreShow less</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, General Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>The personnel were courteous. Price went way up since Dec and was not allowed to use Senior discount-AARPMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r476295774-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>476295774</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r473948108-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>473948108</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Very clean!</t>
+  </si>
+  <si>
+    <t>When my family and I walked into this property, the lobby was brand new. The staff was extremely friendly. In the mornings, my kids loved the clean breakfast area with the cutest Texas shaped waffles we have ever seen! They helped me enjoy my visit by including various brochures of attractions around the DFW metroplex. My stay here was comfortable and unforgettable!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>When my family and I walked into this property, the lobby was brand new. The staff was extremely friendly. In the mornings, my kids loved the clean breakfast area with the cutest Texas shaped waffles we have ever seen! They helped me enjoy my visit by including various brochures of attractions around the DFW metroplex. My stay here was comfortable and unforgettable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r470430427-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>470430427</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r469470767-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>469470767</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r434684592-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>434684592</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r432263176-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>432263176</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst hotel ever, dirty and worn. </t>
+  </si>
+  <si>
+    <t>Let me start by saying I very rarely give less than three stars for a hotel. We should have known when we first checked in at midnight , they lost our reservation, the pool was closed and there was " under construction " signs all over the place . The place was filthy, we  changed rooms  the next day and the   second night   dogs  barked in the next room all night keeping us up. We finally left a day early . But it wasn't just that, there are stains all over the carpet, ripped furniture,  fithy bathrooms, ripped tiles out of the wall I've never seen such a dirty motel. Bonus, managers were nice but that is definitely not worth staying at this hotel. Super 8 should disown this motel gives them bad publicity. MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start by saying I very rarely give less than three stars for a hotel. We should have known when we first checked in at midnight , they lost our reservation, the pool was closed and there was " under construction " signs all over the place . The place was filthy, we  changed rooms  the next day and the   second night   dogs  barked in the next room all night keeping us up. We finally left a day early . But it wasn't just that, there are stains all over the carpet, ripped furniture,  fithy bathrooms, ripped tiles out of the wall I've never seen such a dirty motel. Bonus, managers were nice but that is definitely not worth staying at this hotel. Super 8 should disown this motel gives them bad publicity. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r428513336-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>428513336</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual </t>
+  </si>
+  <si>
+    <t>It was very nice stay.hotel is under renovations ,it was still nice and clean.staff were very friendly. I will definitely will stay there again .it's very convenient location to many places in dallas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r420230875-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>420230875</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Nasty!</t>
+  </si>
+  <si>
+    <t>Upon check in, we were given a room that was NOT clean.  Then we were moved to another Non-Smoking room that smelled horribly like cigarette smoke.  There was mold in the shower/tub.  There was no coffee left in the room and the coffee pot was dirty.    I understand that the hotel is under renovation, but this is not the quality I am used to.  We have stayed at this hotel before and this was NOT the quality we were used to.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r418073649-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>418073649</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>I had 2 rooms for me and my family. The towels in the rooms...</t>
+  </si>
+  <si>
+    <t>I had 2 rooms for me and my family. The towels in the rooms were stained really bad and had holes in them. Found a dirty sock under the skirting of the bed which was not ours. Other than that the stay was ok</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r415555984-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>415555984</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Not Bad!</t>
+  </si>
+  <si>
+    <t>Two night stay for leisure over the labor day weekend.There was a fairly odd smell in the lobby area, but you get use to it. Hotel is under renovation. I hope they will be replacing all the carpet in the building because the carpet in the lobby looks and smells dirty. Anyway, I had no complaints with this hotel other than there is NOT an elevator and house keeping took forever to clean our rooml. I felt safe at this establishment. The room was clean, there were no bugs, no dirty sheets. This is an averge hotel at an average price. Worth the money for a weekend stay or quick get-away. Especially if you don't anticipate being in your hotel majority of your stay. Front desk was nice &amp; polite. There were no gimmicks, no tricks. Our room stayed cold which was good for the summer weather. Showers were hot &amp; steady.  Bath tub could use some touch up as it didn't seem as clean as it could be, but it wasn't to the point where I wouldn't bathe in it. I also think the mattress and couches could be replaced. The bed was comfortable but...let's just say this hotel has a lot of potential and hopefully it will meet it's full potential once renovations are completed. In the mean time, I enjoyed my stay &amp; Wouldn't mind staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Two night stay for leisure over the labor day weekend.There was a fairly odd smell in the lobby area, but you get use to it. Hotel is under renovation. I hope they will be replacing all the carpet in the building because the carpet in the lobby looks and smells dirty. Anyway, I had no complaints with this hotel other than there is NOT an elevator and house keeping took forever to clean our rooml. I felt safe at this establishment. The room was clean, there were no bugs, no dirty sheets. This is an averge hotel at an average price. Worth the money for a weekend stay or quick get-away. Especially if you don't anticipate being in your hotel majority of your stay. Front desk was nice &amp; polite. There were no gimmicks, no tricks. Our room stayed cold which was good for the summer weather. Showers were hot &amp; steady.  Bath tub could use some touch up as it didn't seem as clean as it could be, but it wasn't to the point where I wouldn't bathe in it. I also think the mattress and couches could be replaced. The bed was comfortable but...let's just say this hotel has a lot of potential and hopefully it will meet it's full potential once renovations are completed. In the mean time, I enjoyed my stay &amp; Wouldn't mind staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r408167872-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>408167872</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Holy Cow FIRE in building. Alarms going off at 2:30am NOT a good stay. NO REFUND</t>
+  </si>
+  <si>
+    <t>Checked in at 10pm. Fire alarms went off at 2:30am. I should have brought my floties to get thru all the water. I wonder why they want a review but did not refund any portion of the stay. I know for a fact they arrested the people that started the fire. I think you should get your money from them or give me their info so I can get my money back.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r408057451-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>408057451</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r406835454-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>406835454</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Farmers Branch North Dallas</t>
+  </si>
+  <si>
+    <t>Good Value for the price. It is an older hotel. They had "Water/Carpet" issues when we were there.  Blowers and Dryers going on in the lobby the entire time we were there.  They were trying to dry out the wet carpet.  We did not experience any issues in our room though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r396371720-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>396371720</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Super Dump</t>
+  </si>
+  <si>
+    <t>this place was awful and I have nothing nice to say about it. The stains on the carpet in the room and hallways, the tile floor in the room was sticky, the smokey smell in the halls permeated through into our NON smoking room-we would have left only our flight was delayed and we did not get to the hotel until 1 am and were too exhausted to look for another hotel until the morning-my wife and I could not wait to check out in themorning</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r391885048-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>391885048</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Exceptionally friendly employees with all the modern amenities that you could want.  Comfortable, quiet rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r391829831-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>391829831</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r385886130-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>385886130</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r381734022-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>381734022</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>The service was very accomodating.  However to be honest...</t>
+  </si>
+  <si>
+    <t>The service was very accomodating.  However to be honest, the front door seriously needed repair as well as our bathroom door, and the keyboard on the computer was extremely dirty.Otherwise our room was fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r377297659-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>377297659</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>syringes found in Kleenex holder</t>
+  </si>
+  <si>
+    <t>I went to get a Kleenex from the Kleenex holder were the sink is located. When pulling out the Kleenex the frame popped off and fell and 2 syringes fell out . Management did not take this serious. I was very offended and will not stay at another Super 8 again</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r371455911-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>371455911</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Very Good value for price paid</t>
+  </si>
+  <si>
+    <t>I stayed at this super 8 for couple of night and my stay was comfortable. The staff was friendly and helpful. Good Internet and t.v. Breakfast was basic but was OK include hot Texas shape waffle. The room had a microwave and refrigerator and coffee which was very convenient for my stay. Location was easy access from hwy I 35. Also 24 hr restaurant next door which helped. I will stay next time in area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r370997929-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>370997929</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Dallas visit</t>
+  </si>
+  <si>
+    <t>I stayed at this super 8 in farmers  branch in my recent visit to dallas,it was a great stay.room was very specious and clean .staff was very help full.overall it was very nice stay with perfect price.I will definitely stay here again when I am in Dallas area.I highly recommend  this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r344624556-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>344624556</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>We stayed at super 8 on 11th January for 12 days, we enjoyed our stay and the rooms were clean and tidy, maid service every day and bed changed every 2 days, the staff were very friendly towards us and the breakfast was help yourself and as much as you want to eat, even had a washing room for if you needed to do laundry and a dryer there too...we will defo go back we loved it..</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r327935525-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>327935525</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Disappointed!</t>
+  </si>
+  <si>
+    <t>I have stayed in many Super 8 hotels through the years and have enjoyed my stays, however this one is the worst one I have ever stayed in.  It was dirty, and smelly.  The carpets were stained.  The room was not as clean as it could have been.  The staff was indifferent.  I will definitely be more vigilant if I look into another Super 8.  I don't usually do a review, but I had to pass this on.  Hopefully, this will help improve this particular hotel.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r327712087-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>327712087</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>My Dissatisfaction With Stay At Super 8 Farmers Branch / North Dallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found the hotel to be poorly maintained with filthy and tattered carpet, and smells like a cigarette ash tray throughout.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r327259064-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>327259064</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Stay at this hotel one weekend a month.  Staff is always...</t>
+  </si>
+  <si>
+    <t>Stay at this hotel one weekend a month.  Staff is always friendly and the place is clean.  I always enjoy my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r317886212-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>317886212</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>We asked for a non-smoking room but the ENTIRE hotel reeked of smoke. Gross! Otherwise that, the room was clean (except 1 cockroach in the stairwell) and I was surprised at the quality of decor, definitely a step up from Motel 6.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r316948908-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>316948908</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Worked for me.</t>
+  </si>
+  <si>
+    <t>The motel was quiet and the room temperature could be adequately regulated. A local police officer friend advised me 'check your room for used needles and dead hookers' but I experienced none of that. There were many channels on the TV for those who watch TV.The breakfast was a little slim but adequate. There is a Waffle House just down the block for bigger eaters.My only real complaint, and it is minor, was that there was a constant buzzing in the the bathroom, even when the light was off. When I closed the door I couldn't hear it, so it wasn't a big thing. The clock radio was unplugged and when I plugged it in, it periodically made noises so I unplugged it again. I use my phone as an alarm so I didn't care.MoreShow less</t>
+  </si>
+  <si>
+    <t>The motel was quiet and the room temperature could be adequately regulated. A local police officer friend advised me 'check your room for used needles and dead hookers' but I experienced none of that. There were many channels on the TV for those who watch TV.The breakfast was a little slim but adequate. There is a Waffle House just down the block for bigger eaters.My only real complaint, and it is minor, was that there was a constant buzzing in the the bathroom, even when the light was off. When I closed the door I couldn't hear it, so it wasn't a big thing. The clock radio was unplugged and when I plugged it in, it periodically made noises so I unplugged it again. I use my phone as an alarm so I didn't care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r316411424-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>316411424</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Beware!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We walked into the 2nd floor and the smell of marijuana was so strong coming from several rooms it almost knocked you over. The carpet was so dirty I refused to take off my shoes. The shower was molded and dirty so we did not use it. The parking lot was tiny, and there was not any spaces left so we had to park at the convenience store next door. I-35 runs in front of it and the commenter train behind it. Worst stay ever! We packed up first thing the next morning and left. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r306885509-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>306885509</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Great location suited our purpose</t>
+  </si>
+  <si>
+    <t>The service we received was excellent very helpful staff, whatever we ask they were able to offer some great advice. Our room was clean and tidy for what we needed it for. The location and amenities suited us for what we were there for,  handy food places nearby. We were suppose to vacant our room by 11am but due to some minor issues we asked if we could stay a little longer we stayed on till after 14.00 they were extremely helpful and let us stay we really appreciated it. Would highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r293130030-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>293130030</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Ridiculous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very in healthy environment.Made me n sick @the stomach !!!First room smell like urine, sheets,blanks,n bed stained, carpet had burn marks, people hanging out in parking lot. The second room smelled better, bed had same issue, floor had dark stains on it, burnt iron print. People slamming doors at 345 till around 415 am. Tried to cancel second reservation but hotel still charged. Breakfast was horrible juice in clear containers in a small fridge. Please save yourself some money n go elsewhere!!! </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r287171728-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>287171728</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>enjoyable stay in Farmers Branch, TX</t>
+  </si>
+  <si>
+    <t>Very courteous staff, nice clean rooms, and we'll maintained hotel. Only down side was that it was busy at breakfast, could have used another waffle iron. Had to wait, which was only fair (since there were so many eating breakast) to make a second waffle.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r271687261-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>271687261</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Disgusting decline in Super 8</t>
+  </si>
+  <si>
+    <t>I couldn't believe how worn out, dirty and stinky this Super 8 was.  When I arrived in my room immediately my lungs seized up and my throat got sore. My voice got raspy.  I checked the bed for bugs and it was clean and okay. I checked the bathroom and it was cracked and moldy but essentially clean. The carpet looked filthy with stains and holes but I never had such a sudden respiratory reaction in a hotel room. I asked at the front desk if it was a smoking room.  The attendant said no but then said a dog was in there previously and offered me another room.  The air in the replacement room was much better although the room looked just as shabby.  I am thankful that the hotel employee was friendly and kind.  The breakfast was almost non-existant; a couple choices of dried cereal, oatmeal in a packet to mix with water in the microwave, apples and the waffle mix. Nothing fresh, not even yoghurt.  Come on guys.  But, the coffee was good.  Would I stay here again. Absolutely not. Oh, yes, no elevator so plan to carry your luggage.  Smokers puffing away outside the entrance. People sitting on the hall floors talking on their cell phones.  Try for first floor room rather than second; the air gets real stale as you go up. Poor internet connection; didn't happen for me on my laptop. Just lower your...I couldn't believe how worn out, dirty and stinky this Super 8 was.  When I arrived in my room immediately my lungs seized up and my throat got sore. My voice got raspy.  I checked the bed for bugs and it was clean and okay. I checked the bathroom and it was cracked and moldy but essentially clean. The carpet looked filthy with stains and holes but I never had such a sudden respiratory reaction in a hotel room. I asked at the front desk if it was a smoking room.  The attendant said no but then said a dog was in there previously and offered me another room.  The air in the replacement room was much better although the room looked just as shabby.  I am thankful that the hotel employee was friendly and kind.  The breakfast was almost non-existant; a couple choices of dried cereal, oatmeal in a packet to mix with water in the microwave, apples and the waffle mix. Nothing fresh, not even yoghurt.  Come on guys.  But, the coffee was good.  Would I stay here again. Absolutely not. Oh, yes, no elevator so plan to carry your luggage.  Smokers puffing away outside the entrance. People sitting on the hall floors talking on their cell phones.  Try for first floor room rather than second; the air gets real stale as you go up. Poor internet connection; didn't happen for me on my laptop. Just lower your expectations and you'll be fine! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I couldn't believe how worn out, dirty and stinky this Super 8 was.  When I arrived in my room immediately my lungs seized up and my throat got sore. My voice got raspy.  I checked the bed for bugs and it was clean and okay. I checked the bathroom and it was cracked and moldy but essentially clean. The carpet looked filthy with stains and holes but I never had such a sudden respiratory reaction in a hotel room. I asked at the front desk if it was a smoking room.  The attendant said no but then said a dog was in there previously and offered me another room.  The air in the replacement room was much better although the room looked just as shabby.  I am thankful that the hotel employee was friendly and kind.  The breakfast was almost non-existant; a couple choices of dried cereal, oatmeal in a packet to mix with water in the microwave, apples and the waffle mix. Nothing fresh, not even yoghurt.  Come on guys.  But, the coffee was good.  Would I stay here again. Absolutely not. Oh, yes, no elevator so plan to carry your luggage.  Smokers puffing away outside the entrance. People sitting on the hall floors talking on their cell phones.  Try for first floor room rather than second; the air gets real stale as you go up. Poor internet connection; didn't happen for me on my laptop. Just lower your...I couldn't believe how worn out, dirty and stinky this Super 8 was.  When I arrived in my room immediately my lungs seized up and my throat got sore. My voice got raspy.  I checked the bed for bugs and it was clean and okay. I checked the bathroom and it was cracked and moldy but essentially clean. The carpet looked filthy with stains and holes but I never had such a sudden respiratory reaction in a hotel room. I asked at the front desk if it was a smoking room.  The attendant said no but then said a dog was in there previously and offered me another room.  The air in the replacement room was much better although the room looked just as shabby.  I am thankful that the hotel employee was friendly and kind.  The breakfast was almost non-existant; a couple choices of dried cereal, oatmeal in a packet to mix with water in the microwave, apples and the waffle mix. Nothing fresh, not even yoghurt.  Come on guys.  But, the coffee was good.  Would I stay here again. Absolutely not. Oh, yes, no elevator so plan to carry your luggage.  Smokers puffing away outside the entrance. People sitting on the hall floors talking on their cell phones.  Try for first floor room rather than second; the air gets real stale as you go up. Poor internet connection; didn't happen for me on my laptop. Just lower your expectations and you'll be fine! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r268507814-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>268507814</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Soggy in Farmers Branch</t>
+  </si>
+  <si>
+    <t>Pleasant facility &amp; staff. Well appointed room for business. Carpeting was wet in one area and it appeared that a toilet had over flowed. Suspected spots seemed to be toilet paper had not been completely removed from the carpet.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r265655558-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>265655558</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>The carpet and walls were very dirty and holes in the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The carpet and walls were very dirty and holes in the bedspreads. Internet pictures were misleading. Wish I had known it would be this bad I would have cancelled and stayed elsewhere. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r257531859-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>257531859</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Friendly stay in the calm of the storm</t>
+  </si>
+  <si>
+    <t>Very helpful and friendly staff during the winter blast in Dallas.  Appreciated the clean room and the breakfast.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r257434378-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>257434378</t>
+  </si>
+  <si>
+    <t>Weather was bad so I needed to stay in town. I always stay...</t>
+  </si>
+  <si>
+    <t>Weather was bad so I needed to stay in town. I always stay at this Super 8. Bed is comfortable and breakfast is good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r257386898-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>257386898</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r249790406-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>249790406</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>Good location..friendly but DIRTY!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only reason I am giving 3 of 5 is because we were not in the hotel long and it met our needs. With that said, this place needs a top to bottom cleaning. </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r249713067-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>249713067</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r247070323-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>247070323</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Staff and room were nice!</t>
+  </si>
+  <si>
+    <t>The night clerk and morning clerk were really nice and friendly! I stayed here with a friend and were pleased with the room being really clean. They had a nice selection of TV channels. The hotel was very quiet at night. There is a fast food place right next door to it so that was convenient.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r243241742-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>243241742</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r242540331-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>242540331</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r241340192-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>241340192</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r222960026-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>222960026</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r211933743-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>211933743</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Served it's Purpose</t>
+  </si>
+  <si>
+    <t>We needed a place close to the events we were attending.  The location was great, but overall, you get what you paid for. It was just ok.  No frills.  At least it was clean. Don't bother asking for extra towels if you have a jacuzzi suite.  You can't have any until the next morning.  The bed was really comfortable, but it only had three small square pillows. Odd...just odd.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r209935413-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>209935413</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r207101203-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>207101203</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Very Sad</t>
+  </si>
+  <si>
+    <t>Asked for a non smoking room, didn't know I would have to gag to get there. Room was dingy; cigarette burns in bed sheets; child jumping off bed above us (after 10 pm), tried to call desk phone didn't work.  Not much for a 'breakfast', milk was sour. The AC did work.Staff was unable to do anything with out the manger, who was not there.   Would not stay there again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r206251883-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>206251883</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Lacking some basics</t>
+  </si>
+  <si>
+    <t>First, I was overall satisfied with this hotel.  However to become a place that I stay regularly some things need to change.Breakfast, particularly one billed as 'Super Start' should be more than cold cereal, waffles and a very few apples.  This does not at all meet the standard of any other 'breakfast' hotel.Second neither the trouble with the television nor the trouble with the Internet could be fixed.  It was simply something that I had to accept regardless of the fact that Internet is central to my business.The bed was comfortable enough, the hotel quiet enough and the location central enough (despite the highway construction) that I would not rule out staying again, however with the problems discussed above it is very unlikely that I will bother to return to this particular Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, I was overall satisfied with this hotel.  However to become a place that I stay regularly some things need to change.Breakfast, particularly one billed as 'Super Start' should be more than cold cereal, waffles and a very few apples.  This does not at all meet the standard of any other 'breakfast' hotel.Second neither the trouble with the television nor the trouble with the Internet could be fixed.  It was simply something that I had to accept regardless of the fact that Internet is central to my business.The bed was comfortable enough, the hotel quiet enough and the location central enough (despite the highway construction) that I would not rule out staying again, however with the problems discussed above it is very unlikely that I will bother to return to this particular Super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r206107751-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>206107751</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r196565365-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>196565365</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r196345421-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>196345421</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r196313054-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>196313054</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r190219473-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>190219473</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r185437190-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>185437190</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r185122912-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>185122912</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Good quality for the price paid</t>
+  </si>
+  <si>
+    <t>The room was very large and nicely equipped.  It had a king bed, sofa, mini fridge, microwave, and nice flat screen tv.  Wifi and breakfast were included too.  Based on the price, I would say it was above average for this type of lodging.  It was also close to the metro train line to go to downtown without having to worry about driving and parking.  Overall, quite pleased.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r176575034-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>176575034</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Very quiet and calm hotel.</t>
+  </si>
+  <si>
+    <t>It was a good place to relax after a hard days work.Clean and convenient to Dallas expressway systems.Right between 35 and 635.Also Farmers Branch has a great police force to patrol the area on a regular basis during the night. A 24 Jack in the crack next door is also good for those 1am hunger pains one gets.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r175273362-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>175273362</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r173191893-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>173191893</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r166803024-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>166803024</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>They neglected to tell us how the lights worked . There was...</t>
+  </si>
+  <si>
+    <t>They neglected to tell us how the lights worked . There was some mold on the bathroom floor and around the tub but the shower head was great.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r165928420-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>165928420</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r165704633-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>165704633</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r161286815-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>161286815</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>AWFUL!!</t>
+  </si>
+  <si>
+    <t>Just a warning to anyone planning to stay at this Super 8.......your room may not be as secure or clean as you think.  We left the hotel at 7:30 Saturday morning and returned at 8:30 Saturday evening to discover our room door was propped open with a towel.  Yep, the Front Desk person couldn't say how long the door had been left open by Housekeeping and when we asked to speak to the manager, he was "unavailable".  Awful!!  The guy at the Front Desk then got snippy when we asked for a refund for Saturday evening because we weren't going to stay there after they were so uncooperative. He told us we had to talk to the manager who was at dinner and would be back in 30 minutes.  Yep, we waited 30 minutes only to find out we had to get our refund from Expedia, the manager wouldn't speak with us, and there was nothing they could do for us.Yes, we got a refund from Expedia for Saturday night after the Expedia manager called the hotel and spoke with the person at the Front Desk and as of this moment, we WON'T be staying at another Super 8 in the future.  Too bad for all the other Super 8 hotels out there.  Corporate Super 8 pay attention here!!!  Best Western, here we come!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Just a warning to anyone planning to stay at this Super 8.......your room may not be as secure or clean as you think.  We left the hotel at 7:30 Saturday morning and returned at 8:30 Saturday evening to discover our room door was propped open with a towel.  Yep, the Front Desk person couldn't say how long the door had been left open by Housekeeping and when we asked to speak to the manager, he was "unavailable".  Awful!!  The guy at the Front Desk then got snippy when we asked for a refund for Saturday evening because we weren't going to stay there after they were so uncooperative. He told us we had to talk to the manager who was at dinner and would be back in 30 minutes.  Yep, we waited 30 minutes only to find out we had to get our refund from Expedia, the manager wouldn't speak with us, and there was nothing they could do for us.Yes, we got a refund from Expedia for Saturday night after the Expedia manager called the hotel and spoke with the person at the Front Desk and as of this moment, we WON'T be staying at another Super 8 in the future.  Too bad for all the other Super 8 hotels out there.  Corporate Super 8 pay attention here!!!  Best Western, here we come!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r161275552-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>161275552</t>
+  </si>
+  <si>
+    <t>The front desk was very nice and helpful. Room was a little...</t>
+  </si>
+  <si>
+    <t>The front desk was very nice and helpful. Room was a little dirty and blankets and sheets had burn holes in them. But it was only for one night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r158668999-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>158668999</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r157214896-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>157214896</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r154911539-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>154911539</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded March 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r153879121-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>153879121</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>On time! Always</t>
+  </si>
+  <si>
+    <t>Great room good folks. The got us out the room at Checkout..We overslept and housekeeping was unlocking door at 11:00am exactly. Not to mention we called to front desk to ask for 20 more mins. But good, nice place to stay. Will return soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great room good folks. The got us out the room at Checkout..We overslept and housekeeping was unlocking door at 11:00am exactly. Not to mention we called to front desk to ask for 20 more mins. But good, nice place to stay. Will return soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r152149045-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>152149045</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r146755161-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>146755161</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Basically a good value.  Cleanliness was fine.  Location awkward, and not many nearby restaurants (other than fast food) to chose from.  It troubled me a little that there was no one at the desk  most of the time, but they were responsive to the bell.  I appreciated the business center, though their guidelines for use of the computer were a little confining.  Liked the waffles for breakfast -- in the shape of Texas!  Soundproofing from hallway noise could be improved.  Hallway smelled of smoke, though the room didn't.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded December 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2012</t>
+  </si>
+  <si>
+    <t>Basically a good value.  Cleanliness was fine.  Location awkward, and not many nearby restaurants (other than fast food) to chose from.  It troubled me a little that there was no one at the desk  most of the time, but they were responsive to the bell.  I appreciated the business center, though their guidelines for use of the computer were a little confining.  Liked the waffles for breakfast -- in the shape of Texas!  Soundproofing from hallway noise could be improved.  Hallway smelled of smoke, though the room didn't.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r146730540-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>146730540</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r142724092-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>142724092</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r133323626-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>133323626</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Great value, would stay again!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here. Its easy to find and the staff was helpful and friendly. We enjoyed the pool (which I thought looked bigger in the pictures) and the continental breakfast was good. It was affordable and I ever needed a hotel in this area, I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2012</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here. Its easy to find and the staff was helpful and friendly. We enjoyed the pool (which I thought looked bigger in the pictures) and the continental breakfast was good. It was affordable and I ever needed a hotel in this area, I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r131156100-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>131156100</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>champ</t>
+  </si>
+  <si>
+    <t>THIS IS DEFINITELY THE BEST HOTEL IN FARMERS BRANCH - really wonderful place to stay - nice people, great rooms, really great prices, really comfortable mattresses,really good breakfast all around a great, great experience. Only place we will be staying in Farmers Branch from now on! It's a great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded June 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2012</t>
+  </si>
+  <si>
+    <t>THIS IS DEFINITELY THE BEST HOTEL IN FARMERS BRANCH - really wonderful place to stay - nice people, great rooms, really great prices, really comfortable mattresses,really good breakfast all around a great, great experience. Only place we will be staying in Farmers Branch from now on! It's a great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r125402872-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>125402872</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Bottom Of The Barrel</t>
+  </si>
+  <si>
+    <t>Wouldn't match the rate I found online when I walked-in...later found the lower rate on their own website. I shouldn't have had to pay the higher rate. The pictures are not accurate.  My room has cigarette burns everywhere including comforter, carpet and furniture.  Couldn't stop sneezing from the dust due to lack of thorough cleaning.  Had to go ask for clean sheets because the ones on the bed also were dirty and had holes burned in them.  Saw a giant cockroach in the hallway.  Mirror looks like a baby slobbered all over it and smudged it with their hands.  Very little selection for breakfast and wasn't sure if it was sanitary enough to eat anyways.  Very unclean overall and needs updated due to major wear and tear.  I wouldn't stay here again and wouldn't recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>super8farmersbranch, Guest Relations Manager at Super 8 Farmers Branch/North Dallas, responded to this reviewResponded April 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2012</t>
+  </si>
+  <si>
+    <t>Wouldn't match the rate I found online when I walked-in...later found the lower rate on their own website. I shouldn't have had to pay the higher rate. The pictures are not accurate.  My room has cigarette burns everywhere including comforter, carpet and furniture.  Couldn't stop sneezing from the dust due to lack of thorough cleaning.  Had to go ask for clean sheets because the ones on the bed also were dirty and had holes burned in them.  Saw a giant cockroach in the hallway.  Mirror looks like a baby slobbered all over it and smudged it with their hands.  Very little selection for breakfast and wasn't sure if it was sanitary enough to eat anyways.  Very unclean overall and needs updated due to major wear and tear.  I wouldn't stay here again and wouldn't recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r118087452-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>118087452</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I've stayed here at least ten times in the past year. The rooms are comfortable and well equipped(iron&amp;board,fridge,microwave). The rooms are clean and well stocked with towels and soap. The quality is very consistent at this hotel. The staff is very friendly and helpful. The price is also an attractive feature . Again no surprises at this hotel which is very important for frequent travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I've stayed here at least ten times in the past year. The rooms are comfortable and well equipped(iron&amp;board,fridge,microwave). The rooms are clean and well stocked with towels and soap. The quality is very consistent at this hotel. The staff is very friendly and helpful. The price is also an attractive feature . Again no surprises at this hotel which is very important for frequent travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r117474051-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>117474051</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>Fair for its rate</t>
+  </si>
+  <si>
+    <t>This hotel used to be a Comfort Inn, but they change it to Super 8 because it is becoming old, but It has good rates and rooms are well equiped with Refrigerator and Microwave. Also, staff is very friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r114926461-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>114926461</t>
+  </si>
+  <si>
+    <t>07/01/2011</t>
+  </si>
+  <si>
+    <t>Good Night Sleep</t>
+  </si>
+  <si>
+    <t>I took a flight to dallas this morning and got to the hotel at around 4 and i was quite tried from the trip so i got a room and just wanted to take a shower and sleep. when i first walked in the room it was clean and then went to the bathroom it was good too. the beds seem to be new to me from all the traveling i do, i might be also become a critic for the hotel i stay at.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r110620682-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>110620682</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>Bed Bud Alert!!!!!</t>
+  </si>
+  <si>
+    <t>I was startled to find bugs crawling in my bed (room 209). Luckily I hadn't fallen asleep yet and noticed something crawling on the sheet. I jumped out the bed and turned on the lights, then I was horrified to see bugs crawling all on the pillows and sheets. Needless to say I screamed, freaked out, and then I got mad. I called the front desk and someone came upstairs to verify they were indeed bedbugs. I got my stuff and got the heck out of that place. It was my first introduction to bed bugs and you know what? I am not even surprised I found them there because I made a comment when I first got there about how the outside windows and doors were filthy. Then, I had to move twice because the first room they gave me smelled like smoke and there was a plunger sitting in front of the second room they gave me. The manager and owner need to do a better job of maintaining that property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I was startled to find bugs crawling in my bed (room 209). Luckily I hadn't fallen asleep yet and noticed something crawling on the sheet. I jumped out the bed and turned on the lights, then I was horrified to see bugs crawling all on the pillows and sheets. Needless to say I screamed, freaked out, and then I got mad. I called the front desk and someone came upstairs to verify they were indeed bedbugs. I got my stuff and got the heck out of that place. It was my first introduction to bed bugs and you know what? I am not even surprised I found them there because I made a comment when I first got there about how the outside windows and doors were filthy. Then, I had to move twice because the first room they gave me smelled like smoke and there was a plunger sitting in front of the second room they gave me. The manager and owner need to do a better job of maintaining that property.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2322,6675 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>88</v>
+      </c>
+      <c r="X10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>134</v>
+      </c>
+      <c r="X16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>152</v>
+      </c>
+      <c r="X18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>152</v>
+      </c>
+      <c r="X19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>167</v>
+      </c>
+      <c r="X20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>167</v>
+      </c>
+      <c r="X21" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>187</v>
+      </c>
+      <c r="X23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>195</v>
+      </c>
+      <c r="X24" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>208</v>
+      </c>
+      <c r="X26" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>215</v>
+      </c>
+      <c r="X27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>215</v>
+      </c>
+      <c r="X28" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>215</v>
+      </c>
+      <c r="X29" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>241</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>272</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>272</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J42" t="s">
+        <v>286</v>
+      </c>
+      <c r="K42" t="s">
+        <v>287</v>
+      </c>
+      <c r="L42" t="s">
+        <v>288</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>283</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" t="s">
+        <v>292</v>
+      </c>
+      <c r="L43" t="s">
+        <v>293</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>296</v>
+      </c>
+      <c r="J44" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" t="s">
+        <v>298</v>
+      </c>
+      <c r="L44" t="s">
+        <v>299</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>294</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" t="s">
+        <v>303</v>
+      </c>
+      <c r="L45" t="s">
+        <v>304</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>294</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>310</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s">
+        <v>315</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>316</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>317</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>318</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+      <c r="K48" t="s">
+        <v>320</v>
+      </c>
+      <c r="L48" t="s">
+        <v>321</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>316</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" t="s">
+        <v>326</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>316</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" t="s">
+        <v>330</v>
+      </c>
+      <c r="L50" t="s">
+        <v>331</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>332</v>
+      </c>
+      <c r="O50" t="s">
+        <v>75</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>334</v>
+      </c>
+      <c r="J51" t="s">
+        <v>335</v>
+      </c>
+      <c r="K51" t="s">
+        <v>336</v>
+      </c>
+      <c r="L51" t="s">
+        <v>337</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>332</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" t="s">
+        <v>342</v>
+      </c>
+      <c r="L52" t="s">
+        <v>343</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>332</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K53" t="s">
+        <v>347</v>
+      </c>
+      <c r="L53" t="s">
+        <v>348</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>349</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>350</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>351</v>
+      </c>
+      <c r="J54" t="s">
+        <v>352</v>
+      </c>
+      <c r="K54" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s">
+        <v>354</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>355</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" t="s">
+        <v>358</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>360</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>355</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>362</v>
+      </c>
+      <c r="J56" t="s">
+        <v>363</v>
+      </c>
+      <c r="K56" t="s">
+        <v>364</v>
+      </c>
+      <c r="L56" t="s">
+        <v>365</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>366</v>
+      </c>
+      <c r="O56" t="s">
+        <v>87</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>369</v>
+      </c>
+      <c r="J57" t="s">
+        <v>370</v>
+      </c>
+      <c r="K57" t="s">
+        <v>371</v>
+      </c>
+      <c r="L57" t="s">
+        <v>372</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>373</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>374</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>375</v>
+      </c>
+      <c r="J58" t="s">
+        <v>376</v>
+      </c>
+      <c r="K58" t="s">
+        <v>377</v>
+      </c>
+      <c r="L58" t="s">
+        <v>378</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>373</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>379</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>380</v>
+      </c>
+      <c r="J59" t="s">
+        <v>381</v>
+      </c>
+      <c r="K59" t="s">
+        <v>382</v>
+      </c>
+      <c r="L59" t="s">
+        <v>383</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>381</v>
+      </c>
+      <c r="K60" t="s">
+        <v>387</v>
+      </c>
+      <c r="L60" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>384</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>393</v>
+      </c>
+      <c r="J62" t="s">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s">
+        <v>396</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>397</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>398</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>399</v>
+      </c>
+      <c r="J63" t="s">
+        <v>394</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>397</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>400</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>401</v>
+      </c>
+      <c r="J64" t="s">
+        <v>402</v>
+      </c>
+      <c r="K64" t="s">
+        <v>403</v>
+      </c>
+      <c r="L64" t="s">
+        <v>404</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>405</v>
+      </c>
+      <c r="O64" t="s">
+        <v>87</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>406</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>407</v>
+      </c>
+      <c r="J65" t="s">
+        <v>408</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>409</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>410</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66" t="s">
+        <v>412</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>413</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>414</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>415</v>
+      </c>
+      <c r="J67" t="s">
+        <v>416</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>413</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>417</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>418</v>
+      </c>
+      <c r="J68" t="s">
+        <v>419</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>420</v>
+      </c>
+      <c r="O68" t="s">
+        <v>69</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>422</v>
+      </c>
+      <c r="J69" t="s">
+        <v>423</v>
+      </c>
+      <c r="K69" t="s">
+        <v>424</v>
+      </c>
+      <c r="L69" t="s">
+        <v>425</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>426</v>
+      </c>
+      <c r="O69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>427</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>428</v>
+      </c>
+      <c r="J70" t="s">
+        <v>429</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>426</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>430</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>431</v>
+      </c>
+      <c r="J71" t="s">
+        <v>432</v>
+      </c>
+      <c r="K71" t="s">
+        <v>433</v>
+      </c>
+      <c r="L71" t="s">
+        <v>434</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>435</v>
+      </c>
+      <c r="O71" t="s">
+        <v>75</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>436</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>437</v>
+      </c>
+      <c r="J72" t="s">
+        <v>438</v>
+      </c>
+      <c r="K72" t="s">
+        <v>439</v>
+      </c>
+      <c r="L72" t="s">
+        <v>440</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>435</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>442</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>443</v>
+      </c>
+      <c r="J73" t="s">
+        <v>444</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>435</v>
+      </c>
+      <c r="O73" t="s">
+        <v>75</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>445</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>446</v>
+      </c>
+      <c r="J74" t="s">
+        <v>447</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>448</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>449</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>450</v>
+      </c>
+      <c r="J75" t="s">
+        <v>451</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>60</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>448</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>452</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>453</v>
+      </c>
+      <c r="J76" t="s">
+        <v>451</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>454</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>455</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>456</v>
+      </c>
+      <c r="J77" t="s">
+        <v>457</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>458</v>
+      </c>
+      <c r="O77" t="s">
+        <v>75</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>459</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>460</v>
+      </c>
+      <c r="J78" t="s">
+        <v>461</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>462</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>463</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>464</v>
+      </c>
+      <c r="J79" t="s">
+        <v>465</v>
+      </c>
+      <c r="K79" t="s">
+        <v>466</v>
+      </c>
+      <c r="L79" t="s">
+        <v>467</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>468</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>469</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>470</v>
+      </c>
+      <c r="J80" t="s">
+        <v>471</v>
+      </c>
+      <c r="K80" t="s">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s">
+        <v>473</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>474</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>475</v>
+      </c>
+      <c r="J81" t="s">
+        <v>476</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>477</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>478</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>479</v>
+      </c>
+      <c r="J82" t="s">
+        <v>480</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>477</v>
+      </c>
+      <c r="O82" t="s">
+        <v>87</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>481</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>482</v>
+      </c>
+      <c r="J83" t="s">
+        <v>483</v>
+      </c>
+      <c r="K83" t="s">
+        <v>484</v>
+      </c>
+      <c r="L83" t="s">
+        <v>485</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>486</v>
+      </c>
+      <c r="O83" t="s">
+        <v>87</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>487</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>488</v>
+      </c>
+      <c r="J84" t="s">
+        <v>489</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>490</v>
+      </c>
+      <c r="O84" t="s">
+        <v>69</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>491</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>492</v>
+      </c>
+      <c r="J85" t="s">
+        <v>493</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>490</v>
+      </c>
+      <c r="O85" t="s">
+        <v>75</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>494</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>495</v>
+      </c>
+      <c r="J86" t="s">
+        <v>496</v>
+      </c>
+      <c r="K86" t="s">
+        <v>497</v>
+      </c>
+      <c r="L86" t="s">
+        <v>498</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>499</v>
+      </c>
+      <c r="O86" t="s">
+        <v>69</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>501</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>502</v>
+      </c>
+      <c r="J87" t="s">
+        <v>496</v>
+      </c>
+      <c r="K87" t="s">
+        <v>503</v>
+      </c>
+      <c r="L87" t="s">
+        <v>504</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>499</v>
+      </c>
+      <c r="O87" t="s">
+        <v>87</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>505</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>506</v>
+      </c>
+      <c r="J88" t="s">
+        <v>507</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s">
+        <v>60</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>508</v>
+      </c>
+      <c r="O88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>509</v>
+      </c>
+      <c r="X88" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>511</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>512</v>
+      </c>
+      <c r="J89" t="s">
+        <v>513</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s">
+        <v>60</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>508</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>514</v>
+      </c>
+      <c r="X89" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>516</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>517</v>
+      </c>
+      <c r="J90" t="s">
+        <v>518</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s">
+        <v>60</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>519</v>
+      </c>
+      <c r="O90" t="s">
+        <v>69</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>520</v>
+      </c>
+      <c r="X90" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>522</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>523</v>
+      </c>
+      <c r="J91" t="s">
+        <v>524</v>
+      </c>
+      <c r="K91" t="s">
+        <v>525</v>
+      </c>
+      <c r="L91" t="s">
+        <v>526</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>519</v>
+      </c>
+      <c r="O91" t="s">
+        <v>87</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>520</v>
+      </c>
+      <c r="X91" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>528</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>529</v>
+      </c>
+      <c r="J92" t="s">
+        <v>530</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s">
+        <v>60</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>531</v>
+      </c>
+      <c r="O92" t="s">
+        <v>87</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>532</v>
+      </c>
+      <c r="X92" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>534</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>535</v>
+      </c>
+      <c r="J93" t="s">
+        <v>536</v>
+      </c>
+      <c r="K93" t="s">
+        <v>537</v>
+      </c>
+      <c r="L93" t="s">
+        <v>538</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>539</v>
+      </c>
+      <c r="O93" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>540</v>
+      </c>
+      <c r="X93" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>543</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>544</v>
+      </c>
+      <c r="J94" t="s">
+        <v>545</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s">
+        <v>60</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>546</v>
+      </c>
+      <c r="O94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>540</v>
+      </c>
+      <c r="X94" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>547</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>548</v>
+      </c>
+      <c r="J95" t="s">
+        <v>549</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s">
+        <v>60</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>550</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>540</v>
+      </c>
+      <c r="X95" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>551</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>552</v>
+      </c>
+      <c r="J96" t="s">
+        <v>553</v>
+      </c>
+      <c r="K96" t="s">
+        <v>554</v>
+      </c>
+      <c r="L96" t="s">
+        <v>555</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>556</v>
+      </c>
+      <c r="X96" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>559</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>560</v>
+      </c>
+      <c r="J97" t="s">
+        <v>561</v>
+      </c>
+      <c r="K97" t="s">
+        <v>562</v>
+      </c>
+      <c r="L97" t="s">
+        <v>563</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>564</v>
+      </c>
+      <c r="O97" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>565</v>
+      </c>
+      <c r="X97" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>568</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>569</v>
+      </c>
+      <c r="J98" t="s">
+        <v>570</v>
+      </c>
+      <c r="K98" t="s">
+        <v>571</v>
+      </c>
+      <c r="L98" t="s">
+        <v>572</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>573</v>
+      </c>
+      <c r="O98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>574</v>
+      </c>
+      <c r="X98" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>577</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>578</v>
+      </c>
+      <c r="J99" t="s">
+        <v>579</v>
+      </c>
+      <c r="K99" t="s">
+        <v>580</v>
+      </c>
+      <c r="L99" t="s">
+        <v>581</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>582</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>540</v>
+      </c>
+      <c r="X99" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>584</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>585</v>
+      </c>
+      <c r="J100" t="s">
+        <v>586</v>
+      </c>
+      <c r="K100" t="s">
+        <v>587</v>
+      </c>
+      <c r="L100" t="s">
+        <v>588</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>582</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>589</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>590</v>
+      </c>
+      <c r="J101" t="s">
+        <v>591</v>
+      </c>
+      <c r="K101" t="s">
+        <v>592</v>
+      </c>
+      <c r="L101" t="s">
+        <v>593</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>594</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33679</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>595</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>596</v>
+      </c>
+      <c r="J102" t="s">
+        <v>597</v>
+      </c>
+      <c r="K102" t="s">
+        <v>598</v>
+      </c>
+      <c r="L102" t="s">
+        <v>599</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>600</v>
+      </c>
+      <c r="O102" t="s">
+        <v>61</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>601</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_732.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_732.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="701">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rjsabbe</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Do not stay here. Hotel rooms are dirty. Shower curtain rob was broke so when I showered water went all over the floor, nightstand was broke..looked like someone took a bat to it, burn holes in comforter and sheets, also sheets were stained with god only knows what! Half of my lights would not work, missing light bulbs(maybe they don't want you to see how dirty it is?) Bad neighborhood! Did not get any sleep worried that someone may break in. My advise, pay a little more and stay elsewhere!More</t>
   </si>
   <si>
+    <t>adansb601835</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r567704672-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Rudy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r563645066-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>I enjoyed the stay but the front end clerk was racist and unprofessional I felt like the situation could have been handle better but I was never called back as a follow upMore</t>
   </si>
   <si>
+    <t>121cassandrad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r557806340-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Responded February 9, 2018</t>
   </si>
   <si>
+    <t>scotthL8226PI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r555179846-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>01/21/2018</t>
   </si>
   <si>
+    <t>803wardj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r542897724-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>This stay had many problems: stained sheets, dirty ceiling &amp; bath, smelled of pot &amp; cigarettes. Coke machines empty on both floors. Won't stay again.More</t>
   </si>
   <si>
+    <t>tamikiab2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r525556610-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>The place is not clean hair in fridge and tub. The door is about 4 inches off the ground I can hear everythin,  alot of slamming the door. I stayed in a non smoking room which smelled like smoke, half of the lights in my room did not work.I left my name and number with the front desk associate, as managers do not work on Sunday. That was 10 days ago, I have yet to get a call back, although I left two messages subsequently. the desk chair in my room was dirty ac barley worked and overall cleanliness was lacking. as I checked in it was 11:30 and I was a female traveling alone so I didnt leave, but didnt sleep well. I didn't even consider touching the breakfast. PLEASE DONT GO HEREMore</t>
   </si>
   <si>
+    <t>D4285IZheathers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r522364160-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>The bathroom was filthy, red/pink something was smeared all over bathroom toilet, bathtub, and sink. And yes it was cleanable I used a towel to clean my own toilet seat. The doors had no deadbolt or extra locks and you could see the hall light thru the door where it wasn't hung correctly and or broke. There were no extra locks on the door passing thru my room to the other. The floor was sticky and not cleaned and tbere was red all over the bedding. More</t>
   </si>
   <si>
+    <t>angelarC6740MF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r521206070-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Susan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r508780971-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>Responded August 9, 2017</t>
   </si>
   <si>
+    <t>reaton67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r507463371-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>It is unfortunate that this property is part of the otherwise excellent "value" portfolio operated by Wyndham! It is NOT a good representation of their organization! Lack of enthusiasm during check in, garbage dumpsters being emptied at 03:00 am right outside window, maintenance issues, cleanliness oversights aplenty! Will not be back to this property and recommend it be LAST RESORT for you!More</t>
   </si>
   <si>
+    <t>337chis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r506507211-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t>Our stay was extremely efficient and easy. The location of Super 8 was near many restaurants and fast food. It was also near many attractions that my friends and I attended, making our trip fun. The breakfast area was really clean with delicious breakfast choices. The staff was nice. Our rooms were clean and the beds were very comfortable. We had a great time in Dallas!More</t>
   </si>
   <si>
+    <t>Paula L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r506137965-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>The room was spacious and I liked the idea of putting the room key in the slot on the wall to run the lights and all electronics.More</t>
   </si>
   <si>
+    <t>rojoe2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r503558098-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
     <t>My stay at Super 8 North Dallas was very easy and comfortable. The staff was very friendly when helping me to my room. The breakfast area was clean and the food completed my mornings. I would recommend this hotel to anyone who wants a comfortable stay in Dallas!More</t>
   </si>
   <si>
+    <t>C624elenar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r503557785-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>I was impressed with the overall cleanliness of the hotel at large and public areas. The rooms are very cozy and inviting and very organized. I enjoyed delicious breakfast at the hotel and even going out with my friends to the Jack In The Box and Waffle House next door. The staff accommodated all my needs without complaint. I would love to enjoy another stay in such an inviting atmosphere! More</t>
   </si>
   <si>
+    <t>Sinai D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r501633830-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>The bathroom is outdated. Did not like that the sink is outside the bathroom. Was sexually harrased by the employee while doing laundry. More</t>
   </si>
   <si>
+    <t>elsajaye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r501329812-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -492,6 +543,9 @@
     <t>07/12/2017</t>
   </si>
   <si>
+    <t>700lydiag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r500540792-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>amandadr2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r491233643-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -528,6 +585,9 @@
     <t>My son has asthma so I requested a smoke free room. From the time I walked in the hotel all you smelled was smoke. People were actually walking around smoking inside the building, I was not happy about this. I got to my room and again smoke everywhere. I asked for another room because it felt like the second floors air was broke and it was much more smoky on that floor, also the small fridge has a foul order coming from it too. It smelled like puke in our room, it was coming from the small fridge. The room wasn't clean at all, flat pillows and thin blankets smelly room. I was told that I would have to wait till in the morning, I told the guy that my son had asthma and he was having problems breathing, he said I am sorry we will get you switched to another room in the morning. Morning came and I got up got dressed and didn't even eat the breakfast there because it smelled that bad. I tried to talk to the manager while my kids were instructed to go set in our car, I waited about 15 minutes to talk to him but he never showed up. I then asked for a refund on the nights I didn't stay because the whole building stunk like cigarette smoke, I was told I would get a refund so I left. I will...My son has asthma so I requested a smoke free room. From the time I walked in the hotel all you smelled was smoke. People were actually walking around smoking inside the building, I was not happy about this. I got to my room and again smoke everywhere. I asked for another room because it felt like the second floors air was broke and it was much more smoky on that floor, also the small fridge has a foul order coming from it too. It smelled like puke in our room, it was coming from the small fridge. The room wasn't clean at all, flat pillows and thin blankets smelly room. I was told that I would have to wait till in the morning, I told the guy that my son had asthma and he was having problems breathing, he said I am sorry we will get you switched to another room in the morning. Morning came and I got up got dressed and didn't even eat the breakfast there because it smelled that bad. I tried to talk to the manager while my kids were instructed to go set in our car, I waited about 15 minutes to talk to him but he never showed up. I then asked for a refund on the nights I didn't stay because the whole building stunk like cigarette smoke, I was told I would get a refund so I left. I will never go back to this place it was horrible and I have stayed in some cheap places before, but this place was just nasty, and their pictures on line are a lie! DO NOT STAY HERE!!! More</t>
   </si>
   <si>
+    <t>jcaroled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r487152619-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -546,6 +606,9 @@
     <t>Overall not a bad place to stay. Room and bathroom were clean. Close to several places to eat and the interstate.More</t>
   </si>
   <si>
+    <t>Misael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r486401988-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -561,6 +624,9 @@
     <t>Responded May 23, 2017</t>
   </si>
   <si>
+    <t>Akhi L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r482210001-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -609,6 +675,9 @@
     <t>The personnel were courteous. Price went way up since Dec and was not allowed to use Senior discount-AARPMore</t>
   </si>
   <si>
+    <t>R9262WYdaniel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r476295774-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>Responded April 20, 2017</t>
   </si>
   <si>
+    <t>572kent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r473948108-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -651,6 +723,9 @@
     <t>When my family and I walked into this property, the lobby was brand new. The staff was extremely friendly. In the mornings, my kids loved the clean breakfast area with the cutest Texas shaped waffles we have ever seen! They helped me enjoy my visit by including various brochures of attractions around the DFW metroplex. My stay here was comfortable and unforgettable!More</t>
   </si>
   <si>
+    <t>D4367FGmichaelf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r470430427-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -669,6 +744,9 @@
     <t>Responded March 29, 2017</t>
   </si>
   <si>
+    <t>charlespD932GC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r469470767-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -681,6 +759,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>825melissa2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r434684592-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -693,6 +774,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Shandel4556</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r432263176-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -711,6 +795,9 @@
     <t>Let me start by saying I very rarely give less than three stars for a hotel. We should have known when we first checked in at midnight , they lost our reservation, the pool was closed and there was " under construction " signs all over the place . The place was filthy, we  changed rooms  the next day and the   second night   dogs  barked in the next room all night keeping us up. We finally left a day early . But it wasn't just that, there are stains all over the carpet, ripped furniture,  fithy bathrooms, ripped tiles out of the wall I've never seen such a dirty motel. Bonus, managers were nice but that is definitely not worth staying at this hotel. Super 8 should disown this motel gives them bad publicity. More</t>
   </si>
   <si>
+    <t>tejafd303p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r428513336-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -726,6 +813,9 @@
     <t>It was very nice stay.hotel is under renovations ,it was still nice and clean.staff were very friendly. I will definitely will stay there again .it's very convenient location to many places in dallas.</t>
   </si>
   <si>
+    <t>debbierJ263LO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r420230875-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -744,6 +834,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>tinacF1019LY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r418073649-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -759,6 +852,9 @@
     <t>I had 2 rooms for me and my family. The towels in the rooms were stained really bad and had holes in them. Found a dirty sock under the skirting of the bed which was not ours. Other than that the stay was ok</t>
   </si>
   <si>
+    <t>Imani T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r415555984-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -777,6 +873,9 @@
     <t>Two night stay for leisure over the labor day weekend.There was a fairly odd smell in the lobby area, but you get use to it. Hotel is under renovation. I hope they will be replacing all the carpet in the building because the carpet in the lobby looks and smells dirty. Anyway, I had no complaints with this hotel other than there is NOT an elevator and house keeping took forever to clean our rooml. I felt safe at this establishment. The room was clean, there were no bugs, no dirty sheets. This is an averge hotel at an average price. Worth the money for a weekend stay or quick get-away. Especially if you don't anticipate being in your hotel majority of your stay. Front desk was nice &amp; polite. There were no gimmicks, no tricks. Our room stayed cold which was good for the summer weather. Showers were hot &amp; steady.  Bath tub could use some touch up as it didn't seem as clean as it could be, but it wasn't to the point where I wouldn't bathe in it. I also think the mattress and couches could be replaced. The bed was comfortable but...let's just say this hotel has a lot of potential and hopefully it will meet it's full potential once renovations are completed. In the mean time, I enjoyed my stay &amp; Wouldn't mind staying there again.More</t>
   </si>
   <si>
+    <t>richardcB2145VO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r408167872-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -795,6 +894,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Cecilia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r408057451-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -804,6 +906,9 @@
     <t>08/20/2016</t>
   </si>
   <si>
+    <t>629carried</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r406835454-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -819,6 +924,9 @@
     <t>Good Value for the price. It is an older hotel. They had "Water/Carpet" issues when we were there.  Blowers and Dryers going on in the lobby the entire time we were there.  They were trying to dry out the wet carpet.  We did not experience any issues in our room though.</t>
   </si>
   <si>
+    <t>Jeff F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r396371720-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -837,6 +945,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>208randells</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r391885048-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -852,12 +963,18 @@
     <t>Exceptionally friendly employees with all the modern amenities that you could want.  Comfortable, quiet rooms.</t>
   </si>
   <si>
+    <t>Eva M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r391829831-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
     <t>391829831</t>
   </si>
   <si>
+    <t>Mindy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r385886130-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -870,6 +987,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>P3673OLamyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r381734022-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1005,9 @@
     <t>The service was very accomodating.  However to be honest, the front door seriously needed repair as well as our bathroom door, and the keyboard on the computer was extremely dirty.Otherwise our room was fine.</t>
   </si>
   <si>
+    <t>msastarr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r377297659-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1026,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Jamesmartin0786</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r371455911-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1044,9 @@
     <t>I stayed at this super 8 for couple of night and my stay was comfortable. The staff was friendly and helpful. Good Internet and t.v. Breakfast was basic but was OK include hot Texas shape waffle. The room had a microwave and refrigerator and coffee which was very convenient for my stay. Location was easy access from hwy I 35. Also 24 hr restaurant next door which helped. I will stay next time in area.</t>
   </si>
   <si>
+    <t>Shallysmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r370997929-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1062,9 @@
     <t>I stayed at this super 8 in farmers  branch in my recent visit to dallas,it was a great stay.room was very specious and clean .staff was very help full.overall it was very nice stay with perfect price.I will definitely stay here again when I am in Dallas area.I highly recommend  this place.</t>
   </si>
   <si>
+    <t>david e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r344624556-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1083,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>patriciapK6314YW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r327935525-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1104,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Odis R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r327712087-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1122,9 @@
     <t xml:space="preserve">I found the hotel to be poorly maintained with filthy and tattered carpet, and smells like a cigarette ash tray throughout.  </t>
   </si>
   <si>
+    <t>N9984BLwilliama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r327259064-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1140,9 @@
     <t>Stay at this hotel one weekend a month.  Staff is always friendly and the place is clean.  I always enjoy my stay.</t>
   </si>
   <si>
+    <t>golaurago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r317886212-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1161,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>headhunter2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r316948908-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1182,9 @@
     <t>The motel was quiet and the room temperature could be adequately regulated. A local police officer friend advised me 'check your room for used needles and dead hookers' but I experienced none of that. There were many channels on the TV for those who watch TV.The breakfast was a little slim but adequate. There is a Waffle House just down the block for bigger eaters.My only real complaint, and it is minor, was that there was a constant buzzing in the the bathroom, even when the light was off. When I closed the door I couldn't hear it, so it wasn't a big thing. The clock radio was unplugged and when I plugged it in, it periodically made noises so I unplugged it again. I use my phone as an alarm so I didn't care.More</t>
   </si>
   <si>
+    <t>jana533</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r316411424-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1200,9 @@
     <t xml:space="preserve">We walked into the 2nd floor and the smell of marijuana was so strong coming from several rooms it almost knocked you over. The carpet was so dirty I refused to take off my shoes. The shower was molded and dirty so we did not use it. The parking lot was tiny, and there was not any spaces left so we had to park at the convenience store next door. I-35 runs in front of it and the commenter train behind it. Worst stay ever! We packed up first thing the next morning and left. </t>
   </si>
   <si>
+    <t>Maryann W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r306885509-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1221,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Angela W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r293130030-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1242,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>C164CFcharlesg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r287171728-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1260,9 @@
     <t>Very courteous staff, nice clean rooms, and we'll maintained hotel. Only down side was that it was busy at breakfast, could have used another waffle iron. Had to wait, which was only fair (since there were so many eating breakast) to make a second waffle.</t>
   </si>
   <si>
+    <t>Debbie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r271687261-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1284,9 @@
     <t>I couldn't believe how worn out, dirty and stinky this Super 8 was.  When I arrived in my room immediately my lungs seized up and my throat got sore. My voice got raspy.  I checked the bed for bugs and it was clean and okay. I checked the bathroom and it was cracked and moldy but essentially clean. The carpet looked filthy with stains and holes but I never had such a sudden respiratory reaction in a hotel room. I asked at the front desk if it was a smoking room.  The attendant said no but then said a dog was in there previously and offered me another room.  The air in the replacement room was much better although the room looked just as shabby.  I am thankful that the hotel employee was friendly and kind.  The breakfast was almost non-existant; a couple choices of dried cereal, oatmeal in a packet to mix with water in the microwave, apples and the waffle mix. Nothing fresh, not even yoghurt.  Come on guys.  But, the coffee was good.  Would I stay here again. Absolutely not. Oh, yes, no elevator so plan to carry your luggage.  Smokers puffing away outside the entrance. People sitting on the hall floors talking on their cell phones.  Try for first floor room rather than second; the air gets real stale as you go up. Poor internet connection; didn't happen for me on my laptop. Just lower your...I couldn't believe how worn out, dirty and stinky this Super 8 was.  When I arrived in my room immediately my lungs seized up and my throat got sore. My voice got raspy.  I checked the bed for bugs and it was clean and okay. I checked the bathroom and it was cracked and moldy but essentially clean. The carpet looked filthy with stains and holes but I never had such a sudden respiratory reaction in a hotel room. I asked at the front desk if it was a smoking room.  The attendant said no but then said a dog was in there previously and offered me another room.  The air in the replacement room was much better although the room looked just as shabby.  I am thankful that the hotel employee was friendly and kind.  The breakfast was almost non-existant; a couple choices of dried cereal, oatmeal in a packet to mix with water in the microwave, apples and the waffle mix. Nothing fresh, not even yoghurt.  Come on guys.  But, the coffee was good.  Would I stay here again. Absolutely not. Oh, yes, no elevator so plan to carry your luggage.  Smokers puffing away outside the entrance. People sitting on the hall floors talking on their cell phones.  Try for first floor room rather than second; the air gets real stale as you go up. Poor internet connection; didn't happen for me on my laptop. Just lower your expectations and you'll be fine! More</t>
   </si>
   <si>
+    <t>B C F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r268507814-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1305,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Becky H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r265655558-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1323,9 @@
     <t xml:space="preserve">The carpet and walls were very dirty and holes in the bedspreads. Internet pictures were misleading. Wish I had known it would be this bad I would have cancelled and stayed elsewhere. </t>
   </si>
   <si>
+    <t>Elaine E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r257531859-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1344,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>David D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r257434378-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1359,9 @@
     <t>Weather was bad so I needed to stay in town. I always stay at this Super 8. Bed is comfortable and breakfast is good.</t>
   </si>
   <si>
+    <t>Dawn R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r257386898-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1371,9 @@
     <t>03/02/2015</t>
   </si>
   <si>
+    <t>willp411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r249790406-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1212,12 +1392,18 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>leonardt772</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r249713067-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
     <t>249713067</t>
   </si>
   <si>
+    <t>Gabby V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r247070323-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1422,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>amyt555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r243241742-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1437,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>TxGent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r242540331-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1452,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Donald K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r241340192-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1269,6 +1464,9 @@
     <t>11/24/2014</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r222960026-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1479,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Suan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r211933743-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1500,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Ian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r209935413-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1512,9 @@
     <t>06/11/2014</t>
   </si>
   <si>
+    <t>Babs C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r207101203-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1533,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Mark P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r206251883-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1554,9 @@
     <t>First, I was overall satisfied with this hotel.  However to become a place that I stay regularly some things need to change.Breakfast, particularly one billed as 'Super Start' should be more than cold cereal, waffles and a very few apples.  This does not at all meet the standard of any other 'breakfast' hotel.Second neither the trouble with the television nor the trouble with the Internet could be fixed.  It was simply something that I had to accept regardless of the fact that Internet is central to my business.The bed was comfortable enough, the hotel quiet enough and the location central enough (despite the highway construction) that I would not rule out staying again, however with the problems discussed above it is very unlikely that I will bother to return to this particular Super 8.More</t>
   </si>
   <si>
+    <t>Genevieve F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r206107751-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1566,9 @@
     <t>05/18/2014</t>
   </si>
   <si>
+    <t>P F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r196565365-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1581,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Marie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r196345421-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1593,9 @@
     <t>03/05/2014</t>
   </si>
   <si>
+    <t>Cliff G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r196313054-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1383,6 +1605,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Frances T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r190219473-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1620,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Jose M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r185437190-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1635,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Heynowdave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r185122912-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1656,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>johncruz69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r176575034-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1452,6 +1686,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Derrick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r173191893-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1698,9 @@
     <t>08/20/2013</t>
   </si>
   <si>
+    <t>Nancy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r166803024-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +1719,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Brett J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r165928420-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1734,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Ron Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r165704633-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1746,9 @@
     <t>06/29/2013</t>
   </si>
   <si>
+    <t>Karen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r161286815-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1521,6 +1770,9 @@
     <t>Just a warning to anyone planning to stay at this Super 8.......your room may not be as secure or clean as you think.  We left the hotel at 7:30 Saturday morning and returned at 8:30 Saturday evening to discover our room door was propped open with a towel.  Yep, the Front Desk person couldn't say how long the door had been left open by Housekeeping and when we asked to speak to the manager, he was "unavailable".  Awful!!  The guy at the Front Desk then got snippy when we asked for a refund for Saturday evening because we weren't going to stay there after they were so uncooperative. He told us we had to talk to the manager who was at dinner and would be back in 30 minutes.  Yep, we waited 30 minutes only to find out we had to get our refund from Expedia, the manager wouldn't speak with us, and there was nothing they could do for us.Yes, we got a refund from Expedia for Saturday night after the Expedia manager called the hotel and spoke with the person at the Front Desk and as of this moment, we WON'T be staying at another Super 8 in the future.  Too bad for all the other Super 8 hotels out there.  Corporate Super 8 pay attention here!!!  Best Western, here we come!!More</t>
   </si>
   <si>
+    <t>Elizabeth H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r161275552-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1785,9 @@
     <t>The front desk was very nice and helpful. Room was a little dirty and blankets and sheets had burn holes in them. But it was only for one night.</t>
   </si>
   <si>
+    <t>Carolyn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r158668999-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1806,9 @@
     <t>Responded April 24, 2013</t>
   </si>
   <si>
+    <t>Jackie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r157214896-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1566,6 +1824,9 @@
     <t>Responded April 23, 2013</t>
   </si>
   <si>
+    <t>Jerrod C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r154911539-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1584,6 +1845,9 @@
     <t>Responded March 21, 2013</t>
   </si>
   <si>
+    <t>Shasta D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r153879121-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1602,6 +1866,9 @@
     <t>Great room good folks. The got us out the room at Checkout..We overslept and housekeeping was unlocking door at 11:00am exactly. Not to mention we called to front desk to ask for 20 more mins. But good, nice place to stay. Will return soon. More</t>
   </si>
   <si>
+    <t>Kirstin W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r152149045-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1887,9 @@
     <t>Responded February 27, 2013</t>
   </si>
   <si>
+    <t>LAURA B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r146755161-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1917,9 @@
     <t>Basically a good value.  Cleanliness was fine.  Location awkward, and not many nearby restaurants (other than fast food) to chose from.  It troubled me a little that there was no one at the desk  most of the time, but they were responsive to the bell.  I appreciated the business center, though their guidelines for use of the computer were a little confining.  Liked the waffles for breakfast -- in the shape of Texas!  Soundproofing from hallway noise could be improved.  Hallway smelled of smoke, though the room didn't.More</t>
   </si>
   <si>
+    <t>JEREMY B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r146730540-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1932,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Don C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r142724092-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1947,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>kadymcskatey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r133323626-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1695,6 +1974,9 @@
     <t>We enjoyed our stay here. Its easy to find and the staff was helpful and friendly. We enjoyed the pool (which I thought looked bigger in the pictures) and the continental breakfast was good. It was affordable and I ever needed a hotel in this area, I would stay here again. More</t>
   </si>
   <si>
+    <t>R P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r131156100-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1722,6 +2004,9 @@
     <t>THIS IS DEFINITELY THE BEST HOTEL IN FARMERS BRANCH - really wonderful place to stay - nice people, great rooms, really great prices, really comfortable mattresses,really good breakfast all around a great, great experience. Only place we will be staying in Farmers Branch from now on! It's a great hotel.More</t>
   </si>
   <si>
+    <t>L B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r125402872-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +2034,9 @@
     <t>Wouldn't match the rate I found online when I walked-in...later found the lower rate on their own website. I shouldn't have had to pay the higher rate. The pictures are not accurate.  My room has cigarette burns everywhere including comforter, carpet and furniture.  Couldn't stop sneezing from the dust due to lack of thorough cleaning.  Had to go ask for clean sheets because the ones on the bed also were dirty and had holes burned in them.  Saw a giant cockroach in the hallway.  Mirror looks like a baby slobbered all over it and smudged it with their hands.  Very little selection for breakfast and wasn't sure if it was sanitary enough to eat anyways.  Very unclean overall and needs updated due to major wear and tear.  I wouldn't stay here again and wouldn't recommend it to anyone.More</t>
   </si>
   <si>
+    <t>hopscot1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r118087452-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1770,6 +2058,9 @@
     <t>I've stayed here at least ten times in the past year. The rooms are comfortable and well equipped(iron&amp;board,fridge,microwave). The rooms are clean and well stocked with towels and soap. The quality is very consistent at this hotel. The staff is very friendly and helpful. The price is also an attractive feature . Again no surprises at this hotel which is very important for frequent travelers.More</t>
   </si>
   <si>
+    <t>Raphael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r117474051-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1785,6 +2076,9 @@
     <t>This hotel used to be a Comfort Inn, but they change it to Super 8 because it is becoming old, but It has good rates and rooms are well equiped with Refrigerator and Microwave. Also, staff is very friendly.</t>
   </si>
   <si>
+    <t>chintup18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r114926461-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -1801,6 +2095,9 @@
   </si>
   <si>
     <t>June 2011</t>
+  </si>
+  <si>
+    <t>frequenttravels69</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109238-r110620682-Super_8_Farmers_Branch_North_Dallas-Farmers_Branch_Texas.html</t>
@@ -2326,43 +2623,47 @@
       <c r="A2" t="n">
         <v>33679</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178641</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2384,54 +2685,58 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33679</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178642</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2453,56 +2758,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33679</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>46974</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2524,54 +2833,58 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33679</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178643</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2593,54 +2906,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33679</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178644</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2662,56 +2979,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33679</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178645</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2733,56 +3054,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33679</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178646</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2804,56 +3129,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33679</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178647</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>96</v>
-      </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2875,54 +3204,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33679</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178648</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2944,54 +3277,58 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33679</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>24064</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3013,56 +3350,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33679</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178649</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3084,56 +3425,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33679</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178650</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3155,56 +3500,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33679</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>11499</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3226,56 +3575,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33679</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178651</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>139</v>
       </c>
-      <c r="L15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>127</v>
-      </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3297,56 +3650,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33679</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178652</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3368,56 +3725,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="X16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33679</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178653</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3439,54 +3800,58 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33679</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178654</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3508,54 +3873,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="X18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33679</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178655</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3577,56 +3946,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="X19" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33679</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178656</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3648,56 +4021,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="X20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33679</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178657</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3719,54 +4096,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="X21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33679</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178658</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3788,56 +4169,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33679</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178659</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3853,56 +4238,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33679</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178644</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3924,54 +4313,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33679</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178660</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3993,56 +4386,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="X25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33679</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178661</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4064,54 +4461,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="X26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33679</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178662</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4133,54 +4534,58 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="X27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="Y27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33679</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178663</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4202,54 +4607,58 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="X28" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="Y28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33679</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178664</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4271,56 +4680,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="X29" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="Y29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33679</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178665</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4332,56 +4745,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33679</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178666</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4395,50 +4812,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33679</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178667</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4462,50 +4883,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33679</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178668</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4529,50 +4954,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33679</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>101765</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4590,50 +5019,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33679</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178669</v>
+      </c>
+      <c r="C35" t="s">
+        <v>285</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4657,35 +5090,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33679</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178670</v>
+      </c>
+      <c r="C36" t="s">
+        <v>292</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4693,10 +5130,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4717,51 +5154,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33679</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178671</v>
+      </c>
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4785,50 +5223,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33679</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>8316</v>
+      </c>
+      <c r="C38" t="s">
+        <v>302</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4852,50 +5294,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33679</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178672</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="J39" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4919,35 +5365,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33679</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>114952</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4955,10 +5405,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4979,36 +5429,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33679</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178673</v>
+      </c>
+      <c r="C41" t="s">
+        <v>318</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="J41" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -5016,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -5040,51 +5491,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33679</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178674</v>
+      </c>
+      <c r="C42" t="s">
+        <v>323</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="J42" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="K42" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5108,50 +5560,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33679</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178675</v>
+      </c>
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -5175,50 +5631,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33679</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178676</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="K44" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5232,50 +5692,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33679</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178677</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="K45" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5289,50 +5753,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33679</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178678</v>
+      </c>
+      <c r="C46" t="s">
+        <v>348</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="J46" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5352,50 +5820,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33679</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178679</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="J47" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5411,50 +5883,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33679</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178680</v>
+      </c>
+      <c r="C48" t="s">
+        <v>362</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="J48" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5470,50 +5946,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33679</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178681</v>
+      </c>
+      <c r="C49" t="s">
+        <v>368</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="J49" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="K49" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5529,50 +6009,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33679</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178682</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="J50" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="O50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5596,50 +6080,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33679</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178683</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5663,50 +6151,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33679</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178684</v>
+      </c>
+      <c r="C52" t="s">
+        <v>388</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="J52" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5730,50 +6222,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33679</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>5129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>394</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="J53" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="O53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5793,50 +6289,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33679</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C54" t="s">
+        <v>401</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="J54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="K54" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5858,50 +6358,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33679</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178685</v>
+      </c>
+      <c r="C55" t="s">
+        <v>408</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="J55" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="O55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5925,50 +6429,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33679</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>12774</v>
+      </c>
+      <c r="C56" t="s">
+        <v>414</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="J56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="O56" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5992,50 +6500,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33679</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178686</v>
+      </c>
+      <c r="C57" t="s">
+        <v>422</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="J57" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="K57" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6059,50 +6571,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33679</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>4922</v>
+      </c>
+      <c r="C58" t="s">
+        <v>429</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="J58" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="K58" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="O58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6126,50 +6642,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33679</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>48949</v>
+      </c>
+      <c r="C59" t="s">
+        <v>435</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="J59" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="K59" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="L59" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6193,50 +6713,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33679</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>7545</v>
+      </c>
+      <c r="C60" t="s">
+        <v>442</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="J60" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="K60" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6260,35 +6784,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33679</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>12673</v>
+      </c>
+      <c r="C61" t="s">
+        <v>447</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="J61" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6296,10 +6824,10 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6320,51 +6848,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33679</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178687</v>
+      </c>
+      <c r="C62" t="s">
+        <v>451</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="J62" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="K62" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="L62" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="O62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6388,35 +6917,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33679</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>116496</v>
+      </c>
+      <c r="C63" t="s">
+        <v>458</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="J63" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6424,10 +6957,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6448,51 +6981,52 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33679</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178688</v>
+      </c>
+      <c r="C64" t="s">
+        <v>461</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="J64" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="K64" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="L64" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="O64" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6512,48 +7046,52 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33679</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178689</v>
+      </c>
+      <c r="C65" t="s">
+        <v>468</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="J65" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6577,35 +7115,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33679</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178690</v>
+      </c>
+      <c r="C66" t="s">
+        <v>473</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="J66" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6613,10 +7155,10 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="O66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6637,36 +7179,37 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33679</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>6559</v>
+      </c>
+      <c r="C67" t="s">
+        <v>478</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="J67" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6674,10 +7217,10 @@
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6698,36 +7241,37 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33679</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>408</v>
+      </c>
+      <c r="C68" t="s">
+        <v>482</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="J68" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6735,10 +7279,10 @@
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="O68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6759,51 +7303,52 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33679</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178691</v>
+      </c>
+      <c r="C69" t="s">
+        <v>487</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="J69" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="K69" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="L69" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="O69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6827,35 +7372,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33679</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>2860</v>
+      </c>
+      <c r="C70" t="s">
+        <v>494</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="J70" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6863,10 +7412,10 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="O70" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6887,51 +7436,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33679</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>178692</v>
+      </c>
+      <c r="C71" t="s">
+        <v>498</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="J71" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="K71" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="L71" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="O71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6945,50 +7495,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33679</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>3848</v>
+      </c>
+      <c r="C72" t="s">
+        <v>505</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="J72" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="K72" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="L72" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7012,35 +7566,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33679</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>80542</v>
+      </c>
+      <c r="C73" t="s">
+        <v>512</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="J73" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -7048,10 +7606,10 @@
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="O73" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7072,49 +7630,50 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33679</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175424</v>
+      </c>
+      <c r="C74" t="s">
+        <v>516</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="J74" t="s">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7138,48 +7697,52 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33679</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>31452</v>
+      </c>
+      <c r="C75" t="s">
+        <v>521</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="J75" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7203,35 +7766,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33679</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>103767</v>
+      </c>
+      <c r="C76" t="s">
+        <v>525</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="J76" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7239,10 +7806,10 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>454</v>
+        <v>528</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7263,36 +7830,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33679</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>43603</v>
+      </c>
+      <c r="C77" t="s">
+        <v>529</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="J77" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7300,10 +7868,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>458</v>
+        <v>533</v>
       </c>
       <c r="O77" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7324,36 +7892,37 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33679</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>26802</v>
+      </c>
+      <c r="C78" t="s">
+        <v>534</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="J78" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7361,10 +7930,10 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7385,51 +7954,52 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33679</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>178693</v>
+      </c>
+      <c r="C79" t="s">
+        <v>539</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>464</v>
+        <v>541</v>
       </c>
       <c r="J79" t="s">
-        <v>465</v>
+        <v>542</v>
       </c>
       <c r="K79" t="s">
-        <v>466</v>
+        <v>543</v>
       </c>
       <c r="L79" t="s">
-        <v>467</v>
+        <v>544</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>468</v>
+        <v>545</v>
       </c>
       <c r="O79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7453,41 +8023,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>467</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33679</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>178694</v>
+      </c>
+      <c r="C80" t="s">
+        <v>546</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>470</v>
+        <v>548</v>
       </c>
       <c r="J80" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="K80" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="L80" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
@@ -7516,35 +8090,39 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33679</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>26802</v>
+      </c>
+      <c r="C81" t="s">
+        <v>534</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="J81" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7552,10 +8130,10 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7576,36 +8154,37 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33679</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>21930</v>
+      </c>
+      <c r="C82" t="s">
+        <v>556</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>479</v>
+        <v>558</v>
       </c>
       <c r="J82" t="s">
-        <v>480</v>
+        <v>559</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7613,10 +8192,10 @@
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="O82" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7637,51 +8216,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33679</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>9683</v>
+      </c>
+      <c r="C83" t="s">
+        <v>560</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>481</v>
+        <v>561</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>482</v>
+        <v>562</v>
       </c>
       <c r="J83" t="s">
-        <v>483</v>
+        <v>563</v>
       </c>
       <c r="K83" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="L83" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
       <c r="O83" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7705,35 +8285,39 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33679</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>178695</v>
+      </c>
+      <c r="C84" t="s">
+        <v>567</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>487</v>
+        <v>568</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>488</v>
+        <v>569</v>
       </c>
       <c r="J84" t="s">
-        <v>489</v>
+        <v>570</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7741,10 +8325,10 @@
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>490</v>
+        <v>571</v>
       </c>
       <c r="O84" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7765,36 +8349,37 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33679</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>178696</v>
+      </c>
+      <c r="C85" t="s">
+        <v>572</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>491</v>
+        <v>573</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="J85" t="s">
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s"/>
@@ -7802,10 +8387,10 @@
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>490</v>
+        <v>571</v>
       </c>
       <c r="O85" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -7826,51 +8411,52 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
-      <c r="Y85" t="s"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33679</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C86" t="s">
+        <v>576</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>494</v>
+        <v>577</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>495</v>
+        <v>578</v>
       </c>
       <c r="J86" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="K86" t="s">
-        <v>497</v>
+        <v>580</v>
       </c>
       <c r="L86" t="s">
-        <v>498</v>
+        <v>581</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
       <c r="O86" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7894,50 +8480,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>500</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33679</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>14028</v>
+      </c>
+      <c r="C87" t="s">
+        <v>584</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="J87" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="K87" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
       <c r="L87" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
       <c r="O87" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7961,48 +8551,52 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33679</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>2414</v>
+      </c>
+      <c r="C88" t="s">
+        <v>589</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="J88" t="s">
-        <v>507</v>
+        <v>592</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>508</v>
+        <v>593</v>
       </c>
       <c r="O88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8024,54 +8618,58 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>509</v>
+        <v>594</v>
       </c>
       <c r="X88" t="s">
-        <v>510</v>
+        <v>595</v>
       </c>
       <c r="Y88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33679</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>23739</v>
+      </c>
+      <c r="C89" t="s">
+        <v>596</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="J89" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>508</v>
+        <v>593</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -8093,54 +8691,58 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="X89" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="Y89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33679</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>178697</v>
+      </c>
+      <c r="C90" t="s">
+        <v>602</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>516</v>
+        <v>603</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="J90" t="s">
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>519</v>
+        <v>606</v>
       </c>
       <c r="O90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8162,56 +8764,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>520</v>
+        <v>607</v>
       </c>
       <c r="X90" t="s">
-        <v>521</v>
+        <v>608</v>
       </c>
       <c r="Y90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33679</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>178698</v>
+      </c>
+      <c r="C91" t="s">
+        <v>609</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>523</v>
+        <v>611</v>
       </c>
       <c r="J91" t="s">
-        <v>524</v>
+        <v>612</v>
       </c>
       <c r="K91" t="s">
-        <v>525</v>
+        <v>613</v>
       </c>
       <c r="L91" t="s">
-        <v>526</v>
+        <v>614</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>519</v>
+        <v>606</v>
       </c>
       <c r="O91" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8233,54 +8839,58 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>520</v>
+        <v>607</v>
       </c>
       <c r="X91" t="s">
-        <v>521</v>
+        <v>608</v>
       </c>
       <c r="Y91" t="s">
-        <v>527</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>33679</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>178699</v>
+      </c>
+      <c r="C92" t="s">
+        <v>616</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>528</v>
+        <v>617</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>529</v>
+        <v>618</v>
       </c>
       <c r="J92" t="s">
-        <v>530</v>
+        <v>619</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>531</v>
+        <v>620</v>
       </c>
       <c r="O92" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8302,56 +8912,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="X92" t="s">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="Y92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>33679</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>178700</v>
+      </c>
+      <c r="C93" t="s">
+        <v>623</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>534</v>
+        <v>624</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="J93" t="s">
-        <v>536</v>
+        <v>626</v>
       </c>
       <c r="K93" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="L93" t="s">
-        <v>538</v>
+        <v>628</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="O93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8373,54 +8987,58 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="X93" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="Y93" t="s">
-        <v>542</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>33679</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>178701</v>
+      </c>
+      <c r="C94" t="s">
+        <v>633</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>543</v>
+        <v>634</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>544</v>
+        <v>635</v>
       </c>
       <c r="J94" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>546</v>
+        <v>637</v>
       </c>
       <c r="O94" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8442,54 +9060,58 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="X94" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="Y94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>33679</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>13779</v>
+      </c>
+      <c r="C95" t="s">
+        <v>638</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="J95" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -8511,47 +9133,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="X95" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="Y95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33679</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>178702</v>
+      </c>
+      <c r="C96" t="s">
+        <v>643</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>551</v>
+        <v>644</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>552</v>
+        <v>645</v>
       </c>
       <c r="J96" t="s">
-        <v>553</v>
+        <v>646</v>
       </c>
       <c r="K96" t="s">
-        <v>554</v>
+        <v>647</v>
       </c>
       <c r="L96" t="s">
-        <v>555</v>
+        <v>648</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
@@ -8578,56 +9204,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>556</v>
+        <v>649</v>
       </c>
       <c r="X96" t="s">
-        <v>557</v>
+        <v>650</v>
       </c>
       <c r="Y96" t="s">
-        <v>558</v>
+        <v>651</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>33679</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>3933</v>
+      </c>
+      <c r="C97" t="s">
+        <v>652</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="J97" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="K97" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="L97" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="O97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8649,56 +9279,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="X97" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
       <c r="Y97" t="s">
-        <v>567</v>
+        <v>661</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>33679</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>2794</v>
+      </c>
+      <c r="C98" t="s">
+        <v>662</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="J98" t="s">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="K98" t="s">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="L98" t="s">
-        <v>572</v>
+        <v>667</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>573</v>
+        <v>668</v>
       </c>
       <c r="O98" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P98" t="n">
         <v>2</v>
@@ -8720,56 +9354,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>574</v>
+        <v>669</v>
       </c>
       <c r="X98" t="s">
-        <v>575</v>
+        <v>670</v>
       </c>
       <c r="Y98" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>33679</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>178703</v>
+      </c>
+      <c r="C99" t="s">
+        <v>672</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="J99" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
       <c r="K99" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="L99" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>582</v>
+        <v>678</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8789,56 +9427,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="X99" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="Y99" t="s">
-        <v>583</v>
+        <v>679</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>33679</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>178704</v>
+      </c>
+      <c r="C100" t="s">
+        <v>680</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>584</v>
+        <v>681</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="J100" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
       <c r="K100" t="s">
-        <v>587</v>
+        <v>684</v>
       </c>
       <c r="L100" t="s">
-        <v>588</v>
+        <v>685</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>582</v>
+        <v>678</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8858,50 +9500,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>588</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>33679</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>178705</v>
+      </c>
+      <c r="C101" t="s">
+        <v>686</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="J101" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
       <c r="K101" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="L101" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>594</v>
+        <v>692</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -8921,50 +9567,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>33679</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>178706</v>
+      </c>
+      <c r="C102" t="s">
+        <v>693</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="J102" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="K102" t="s">
-        <v>598</v>
+        <v>697</v>
       </c>
       <c r="L102" t="s">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="O102" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -8988,7 +9638,7 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
